--- a/ClientExcel/Game/UISound.xlsx
+++ b/ClientExcel/Game/UISound.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UISound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -41,6 +41,9 @@
     <t>AssetName</t>
   </si>
   <si>
+    <t>AssetId</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>资源名称</t>
+  </si>
+  <si>
+    <t>资源编号</t>
   </si>
   <si>
     <t>优先级（默认0，128最高，-128最低）</t>
@@ -91,10 +97,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -544,19 +549,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,7 +570,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,9 +694,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,6 +761,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1013,18 +1028,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,10 +1048,10 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,74 +1062,86 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClientExcel/Game/UISound.xlsx
+++ b/ClientExcel/Game/UISound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UISound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>SoundGroupId</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>音量（0~1）</t>
+  </si>
+  <si>
+    <t>界面组编号</t>
   </si>
 </sst>
 </file>
@@ -1028,37 +1034,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="22.875" customWidth="1"/>
+    <col min="1" max="16384" width="22.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1071,77 +1072,58 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>8</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClientExcel/Game/UISound.xlsx
+++ b/ClientExcel/Game/UISound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="UISound" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -44,15 +44,18 @@
     <t>AssetId</t>
   </si>
   <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
     <t>Volume</t>
   </si>
   <si>
-    <t>SoundGroupId</t>
-  </si>
-  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -74,13 +77,16 @@
     <t>资源编号</t>
   </si>
   <si>
+    <t>声音组名称</t>
+  </si>
+  <si>
+    <t>声音组编号</t>
+  </si>
+  <si>
     <t>优先级（默认0，128最高，-128最低）</t>
   </si>
   <si>
     <t>音量（0~1）</t>
-  </si>
-  <si>
-    <t>界面组编号</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="16384" width="22.875" style="1" customWidth="1"/>
   </cols>
@@ -1053,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,54 +1081,63 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ClientExcel/Game/UISound.xlsx
+++ b/ClientExcel/Game/UISound.xlsx
@@ -32,7 +32,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>界面声音配置表</t>
+    <t>界面音效配置表</t>
   </si>
   <si>
     <t>Id</t>
@@ -65,7 +65,7 @@
     <t>Single</t>
   </si>
   <si>
-    <t>声音编号</t>
+    <t>界面音效编号</t>
   </si>
   <si>
     <t>策划备注</t>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.875" defaultRowHeight="14.25" outlineLevelRow="3"/>
